--- a/Technical Design Document List Example.xlsx
+++ b/Technical Design Document List Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyijing/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956675A8-B55D-1942-AB94-5087632D5E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8395EE-D7D0-BD4B-A63C-E44886107DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,6 +37,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -313,11 +314,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>stored in the box(chest)</t>
+    <t>Is the chest. Dirtributed randomly</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Is the chest. Dirtributed randomly</t>
+    <t>stored in the box(chest), distributed anywhere in the map</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -336,38 +337,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,12 +383,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -673,37 +683,37 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -924,8 +934,8 @@
   </sheetPr>
   <dimension ref="A1:L985"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -936,8 +946,8 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -966,11 +976,11 @@
         <v>11</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
@@ -998,9 +1008,9 @@
       <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
@@ -1205,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="21"/>
-      <c r="J14" s="60" t="s">
+      <c r="J14" s="53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1227,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="I15" s="21"/>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="51" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1262,7 +1272,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="21"/>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="51" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1284,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="I18" s="21"/>
-      <c r="J18" s="58" t="s">
+      <c r="J18" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1323,7 +1333,7 @@
       <c r="D21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="52" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -1336,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="21"/>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="50" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1358,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="21"/>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="50" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1452,7 +1462,7 @@
         <v>11</v>
       </c>
       <c r="I27" s="34"/>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="50" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1502,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="I30" s="35"/>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="54" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1524,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="I31" s="24"/>
-      <c r="J31" s="61" t="s">
+      <c r="J31" s="54" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1539,7 +1549,7 @@
       <c r="F32" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="55" t="s">
         <v>78</v>
       </c>
       <c r="H32" s="14" t="s">
@@ -1611,8 +1621,8 @@
         <v>9</v>
       </c>
       <c r="I36" s="35"/>
-      <c r="J36" s="57" t="s">
-        <v>80</v>
+      <c r="J36" s="50" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1633,8 +1643,8 @@
         <v>10</v>
       </c>
       <c r="I37" s="39"/>
-      <c r="J37" s="57" t="s">
-        <v>81</v>
+      <c r="J37" s="50" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1753,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="44"/>
-      <c r="J44" s="63" t="s">
+      <c r="J44" s="56" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1852,13 +1862,13 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
@@ -1872,13 +1882,13 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
@@ -1892,20 +1902,20 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -1913,9 +1923,9 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -1923,9 +1933,9 @@
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -1933,9 +1943,9 @@
     <row r="61" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -1952,10 +1962,10 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -1972,20 +1982,20 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -2002,13 +2012,13 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E69" s="47"/>
@@ -4763,6 +4773,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:H68"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="J2:L3"/>
@@ -4770,11 +4785,6 @@
     <mergeCell ref="B55:H55"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:H68"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
